--- a/ResComSFCalcs.xlsx
+++ b/ResComSFCalcs.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Centers-Capacity-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F49851A-A864-4DE2-B1B5-D9BCBEB8ED8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E877248-FC32-45EB-AD73-ADF82DED6E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15990" windowHeight="24840" xr2:uid="{3866D021-ACB2-4624-874A-7415077B8939}"/>
+    <workbookView xWindow="-16320" yWindow="-7050" windowWidth="16440" windowHeight="29040" xr2:uid="{3866D021-ACB2-4624-874A-7415077B8939}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SplitCom = 0" sheetId="2" r:id="rId2"/>
+    <sheet name="SplitRes = 0" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>Acres</t>
   </si>
@@ -149,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -189,6 +191,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -517,7 +522,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,10 +620,10 @@
       <c r="G9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="17"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -696,6 +701,434 @@
       <c r="F13" s="4">
         <f>F11+F10</f>
         <v>9.0000000000000018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5">
+        <f>F13-(B2*(1-B3))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f>400/6</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I9:J9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3EB80A-86A6-48E0-BA8E-DA0181BEFD19}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>110</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8">
+        <f>(B2*(1-B3))/(((B8/B7)/(B4*B5))+(1/(B6*43560)))</f>
+        <v>1.1879999999987999E-6</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9">
+        <f>B10/($B$10+$B$11)</f>
+        <v>9.9999999999899993E-13</v>
+      </c>
+      <c r="F10" s="10">
+        <f>B10/(B6*43560)</f>
+        <v>9.0909090908999074E-12</v>
+      </c>
+      <c r="G10" s="11">
+        <f>B10/(F10*43560)</f>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="8">
+        <f>B10/$B$13</f>
+        <v>1.9799999999979997E-9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13">
+        <f>B10*B8/B7</f>
+        <v>1187999.9999988</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="14">
+        <f>B11/($B$10+$B$11)</f>
+        <v>0.99999999999900013</v>
+      </c>
+      <c r="F11" s="15">
+        <f>B11/(B4*B5)</f>
+        <v>8.9999999999909086</v>
+      </c>
+      <c r="G11" s="16">
+        <f>B11/(F11*43560)</f>
+        <v>3.0303030303030307</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="13">
+        <f>B11/B5</f>
+        <v>989.99999999900001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <f>B2*(1-B3)*B4*B5</f>
+        <v>1188000</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>600</v>
+      </c>
+      <c r="F13" s="4">
+        <f>F11+F10</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5">
+        <f>F13-(B2*(1-B3))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f>400/6</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I9:J9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17013E2A-F87F-48F0-A63E-FE9E76EB89F3}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>110</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1200</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>9.9999999999999996E-24</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8">
+        <f>(B2*(1-B3))/(((B8/B7)/(B4*B5))+(1/(B6*43560)))</f>
+        <v>1176120</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9">
+        <f>B10/($B$10+$B$11)</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <f>B10/(B6*43560)</f>
+        <v>9</v>
+      </c>
+      <c r="G10" s="11">
+        <f>B10/(F10*43560)</f>
+        <v>3</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="8">
+        <f>B10/$B$13</f>
+        <v>1960.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="13">
+        <f>B10*B8/B7</f>
+        <v>1.17612E-17</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="14">
+        <f>B11/($B$10+$B$11)</f>
+        <v>9.9999999999999996E-24</v>
+      </c>
+      <c r="F11" s="15">
+        <f>B11/(B4*B5)</f>
+        <v>8.9099999999999997E-23</v>
+      </c>
+      <c r="G11" s="16">
+        <f>B11/(F11*43560)</f>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="13">
+        <f>B11/B5</f>
+        <v>9.8009999999999996E-21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <f>B2*(1-B3)*B6*43560</f>
+        <v>1176120</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>600</v>
+      </c>
+      <c r="F13" s="4">
+        <f>F11+F10</f>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
